--- a/pearson_tables/tp_netherlands_cumul-2-2.xlsx
+++ b/pearson_tables/tp_netherlands_cumul-2-2.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8649654114195636</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.6478229689064684</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.599729460584092</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6690604909420982</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6173918877852074</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6619928069864942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.764174392808569</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.5643424896057467</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.589892572311364</v>
+        <v>0.6398124592709094</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.7508262672845952</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.5055825829720281</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7176845730230385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.6919254554012972</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5375798276783765</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.7032809131241314</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.8006453653954761</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.550679138153639</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.5023973290079247</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7674618034521742</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5355912362843382</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.6465117784842292</v>
+        <v>0.6324229047117447</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.6724269388978965</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4901628413912072</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.6552837312045242</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
